--- a/data/trans_dic/IP18A05-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/IP18A05-Estudios-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -864,12 +864,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,3</t>
+          <t>0,0; 7,59</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,96</t>
+          <t>0,0; 6,1</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 49,51</t>
+          <t>0,0; 53,52</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -889,12 +889,12 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,13</t>
+          <t>0,0; 3,47</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,04</t>
+          <t>0,0; 8,16</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -904,22 +904,22 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,92</t>
+          <t>0,0; 3,61</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,93</t>
+          <t>0,0; 3,0</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,71</t>
+          <t>0,0; 3,59</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 33,97</t>
+          <t>0,0; 33,62</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,01</t>
+          <t>0,0; 1,18</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,16; 1,46</t>
+          <t>0,16; 1,58</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,97; 3,39</t>
+          <t>0,94; 3,37</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,36; 10,72</t>
+          <t>1,28; 9,89</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,2; 1,91</t>
+          <t>0,23; 2,04</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,36; 2,11</t>
+          <t>0,35; 2,11</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,45; 2,45</t>
+          <t>0,55; 2,37</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,22</t>
+          <t>0,0; 6,67</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,25; 1,16</t>
+          <t>0,2; 1,15</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0,41; 1,45</t>
+          <t>0,39; 1,42</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0,91; 2,4</t>
+          <t>0,92; 2,42</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>1,35; 7,11</t>
+          <t>1,3; 6,83</t>
         </is>
       </c>
     </row>
@@ -1144,17 +1144,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,75</t>
+          <t>0,0; 1,54</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,91; 5,26</t>
+          <t>0,91; 5,15</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,37</t>
+          <t>0,0; 2,64</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1164,12 +1164,12 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,6</t>
+          <t>0,0; 2,58</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,55</t>
+          <t>0,0; 2,52</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1179,27 +1179,27 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>1,47; 14,39</t>
+          <t>1,54; 16,32</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,0</t>
+          <t>0,0; 1,52</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0,67; 3,19</t>
+          <t>0,67; 3,0</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0,22; 2,13</t>
+          <t>0,2; 1,9</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0,35; 7,38</t>
+          <t>0,71; 6,6</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,19; 1,28</t>
+          <t>0,19; 1,24</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,51; 1,94</t>
+          <t>0,59; 1,88</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,8; 2,4</t>
+          <t>0,77; 2,4</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,88; 8,98</t>
+          <t>2,15; 9,75</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,22; 1,37</t>
+          <t>0,23; 1,31</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,4; 1,61</t>
+          <t>0,4; 1,58</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,61; 2,02</t>
+          <t>0,64; 1,98</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,99; 6,15</t>
+          <t>0,91; 6,11</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,28; 1,04</t>
+          <t>0,3; 1,1</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>0,6; 1,5</t>
+          <t>0,62; 1,47</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0,79; 1,9</t>
+          <t>0,84; 1,9</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>2,06; 6,75</t>
+          <t>1,94; 6,74</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP18A05-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/IP18A05-Estudios-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -540,7 +540,7 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
@@ -548,7 +548,7 @@
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="H1" s="3" t="n"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Primarios</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -661,57 +661,57 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
+          <t>0,76%</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>2,23%</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,24%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,96%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>20,36%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,15%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,86%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,05%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>12,02%</t>
         </is>
       </c>
     </row>
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 77,15</t>
+          <t>0; 1,81</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 77,15</t>
+          <t>0,0; 4,41</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 7,57</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0; 15,69</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 8,22</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 5,75</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0; 2,15</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 57,06</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 77,15</t>
+          <t>0,0; 4,14</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0; 77,15</t>
+          <t>0,0; 2,97</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 3,63</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 33,16</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Primarios</t>
+          <t>Secundarios</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>2,24%</t>
+          <t>0,78%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,96%</t>
+          <t>0,99%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,16%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>20,39%</t>
+          <t>2,0%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,34%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,76%</t>
+          <t>0,63%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>2,23%</t>
+          <t>1,85%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,16%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>1,15%</t>
+          <t>0,55%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>0,86%</t>
+          <t>0,8%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>1,05%</t>
+          <t>1,5%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>11,7%</t>
+          <t>3,25%</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>0,2; 1,76</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>0,44; 2,01</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>0,51; 2,46</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
           <t>0,0; 7,59</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 6,1</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>0; 2,15</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 53,52</t>
-        </is>
-      </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,81</t>
+          <t>0,0; 1,01</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,47</t>
+          <t>0,16; 1,55</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,16</t>
+          <t>0,94; 3,44</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 15,69</t>
+          <t>1,42; 11,24</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,61</t>
+          <t>0,22; 1,19</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,0</t>
+          <t>0,4; 1,44</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,59</t>
+          <t>0,92; 2,49</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 33,62</t>
+          <t>1,33; 7,19</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Secundarios</t>
+          <t>Universitarios</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,34%</t>
+          <t>0,51%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,63%</t>
+          <t>0,51%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1,85%</t>
+          <t>0,78%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>4,3%</t>
+          <t>5,7%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,78%</t>
+          <t>0,35%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,99%</t>
+          <t>2,59%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>1,16%</t>
+          <t>0,86%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>2,06%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,55%</t>
+          <t>0,43%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>0,8%</t>
+          <t>1,57%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>1,5%</t>
+          <t>0,82%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>3,34%</t>
+          <t>2,68%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,18</t>
+          <t>0,0; 3,37</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,16; 1,58</t>
+          <t>0,0; 3,02</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,94; 3,37</t>
+          <t>0,0; 2,5</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,28; 9,89</t>
+          <t>1,51; 15,48</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,23; 2,04</t>
+          <t>0,0; 1,74</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,35; 2,11</t>
+          <t>0,96; 5,38</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,55; 2,37</t>
+          <t>0,0; 2,64</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,67</t>
+          <t>0; 4,66</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,2; 1,15</t>
+          <t>0,0; 1,31</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0,39; 1,42</t>
+          <t>0,68; 3,19</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0,92; 2,42</t>
+          <t>0,2; 2,02</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>1,3; 6,83</t>
+          <t>0,73; 8,24</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Universitarios</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,35%</t>
+          <t>0,62%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>2,59%</t>
+          <t>0,85%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,86%</t>
+          <t>1,16%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,89%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,51%</t>
+          <t>0,57%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,51%</t>
+          <t>1,12%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,78%</t>
+          <t>1,42%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>5,53%</t>
+          <t>4,34%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,43%</t>
+          <t>0,59%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>1,57%</t>
+          <t>0,98%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>0,82%</t>
+          <t>1,29%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>2,66%</t>
+          <t>3,71%</t>
         </is>
       </c>
     </row>
@@ -1144,216 +1144,75 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,54</t>
+          <t>0,24; 1,45</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,91; 5,15</t>
+          <t>0,4; 1,63</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,64</t>
+          <t>0,65; 2,18</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 4,66</t>
+          <t>1,01; 7,0</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,58</t>
+          <t>0,19; 1,36</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,52</t>
+          <t>0,6; 1,95</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,59</t>
+          <t>0,76; 2,46</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>1,54; 16,32</t>
+          <t>1,94; 9,85</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,52</t>
+          <t>0,28; 1,12</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0,67; 3,0</t>
+          <t>0,6; 1,48</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0,2; 1,9</t>
+          <t>0,83; 1,89</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0,71; 6,6</t>
+          <t>2,08; 6,5</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B12" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>0,56%</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>1,11%</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>1,42%</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>4,42%</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>0,62%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>0,85%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>1,16%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>2,88%</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>0,59%</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>0,98%</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>1,29%</t>
-        </is>
-      </c>
-      <c r="N12" s="2" t="inlineStr">
-        <is>
-          <t>3,74%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>0,19; 1,24</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>0,59; 1,88</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>0,77; 2,4</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>2,15; 9,75</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>0,23; 1,31</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>0,4; 1,58</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>0,64; 1,98</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>0,91; 6,11</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>0,3; 1,1</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>0,62; 1,47</t>
-        </is>
-      </c>
-      <c r="M13" s="2" t="inlineStr">
-        <is>
-          <t>0,84; 1,9</t>
-        </is>
-      </c>
-      <c r="N13" s="2" t="inlineStr">
-        <is>
-          <t>1,94; 6,74</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A12" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
